--- a/story_xlsx_files/34.xlsx
+++ b/story_xlsx_files/34.xlsx
@@ -12,12 +12,90 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
   <si>
     <t>storyText</t>
   </si>
   <si>
-    <t>Attending a Lecture Business Deal</t>
+    <t>locationEvent</t>
+  </si>
+  <si>
+    <t>socialEvent</t>
+  </si>
+  <si>
+    <t>Charlie saw Alma as they walked into class, and motioned for her to come sit in the back next to him, since they had business to discuss.</t>
+  </si>
+  <si>
+    <t>Charlie and Alma were both economics students with entrepreneurial bents, both very busy, and both in the same class.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After talking at a party, Charlie had discovered that Alma was looking for financing for her web development company, and had been talking with other members of his venture capital group about making an investment. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">They had come to a decision that morning, and he didn't want to wait until after class to discuss it with her. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The class was in a large auditorium, with small foldable desks on the side of each cushion chair. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">There were large windows on both sides of the hall, and they could see the first flurries of a winter storm starting outside. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Here we are at Lecture Seven already, in History of the Eternal City," said the professor. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "We're going to talk today about the age of the first Roman emperor, Augustus.” </t>
+  </si>
+  <si>
+    <t>She went into some clarifications about logistical matters for the final exam, while Charlie leaned over to Alma.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> “Okay so I’ve been thinking about your startup idea, and I’ve talked about it with my fellow investors.</t>
+  </si>
+  <si>
+    <t>We’d like to invest half of what you originally suggested, so rather than $30,000, we start with $15,000.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We would see how the company does and then invest the other half later.” </t>
+  </si>
+  <si>
+    <t>Alma narrowed her eyes and pursed her lips, tapping her pen on her notebook.</t>
+  </si>
+  <si>
+    <t>She turned back to the lecture as she considered this.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“The senate had conferred upon him the title of Augustus," the professor was saying, "the sacred and revered one, the restorer of traditional values, the city’s new religious leader, the restorer of temples. </t>
+  </si>
+  <si>
+    <t>He also sought to beautify Rome and make it into a new Athens, and to dispel the criticisms of Rome as disorganized and ugly.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Alma then offered her rebuttal, “I don’t know about that, it’s not going to be possible to implement our ideas effectively unless the project is fully funded. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We would have to find other investors and that would set us back in our timeline. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our profit projections assumed we'd be starting relatively soon, not months down the line.” </t>
+  </si>
+  <si>
+    <t xml:space="preserve">They whispered back and forth during the whole class trying to work out a compromise. </t>
+  </si>
+  <si>
+    <t>Finally, the class ended, and the professor dismissed the students with a reminder that the midterm paper was due on Thursday and that they should email their papers to their TA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Everyone packed up their things and headed out of the lecture hall to get to their next class, except for Charlie and Alma. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Alright, so we’ll have the $30,000 wired to you by tomorrow,” Charlie said. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This wasn't ideal, but Alma had refused to budge, and his investment group had told him they were willing to pay the full amount if necessary. </t>
+  </si>
+  <si>
+    <t>They shook hands and walked out of the now-empty lecture hall, and made plans to sign the official paperwork the next day.</t>
   </si>
 </sst>
 </file>
@@ -184,7 +262,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -197,10 +275,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -209,13 +290,19 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1300,7 +1387,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
@@ -1316,205 +1403,526 @@
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>2</v>
+      </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" s="4">
-        <v>34</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" ht="44.05" customHeight="1">
-      <c r="A3" t="s" s="7">
+    <row r="2" ht="116.25" customHeight="1">
+      <c r="A2" t="s" s="4">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="10"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="10"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="10"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="10"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="10"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="10"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-    </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="10"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-    </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="10"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="10"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-    </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="10"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-    </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="10"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-    </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="10"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" ht="104.05" customHeight="1">
+      <c r="A3" t="s" s="8">
+        <v>4</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" ht="176.05" customHeight="1">
+      <c r="A4" t="s" s="8">
+        <v>5</v>
+      </c>
+      <c r="B4" s="9">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" ht="80.05" customHeight="1">
+      <c r="A5" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" ht="80.05" customHeight="1">
+      <c r="A6" t="s" s="8">
+        <v>7</v>
+      </c>
+      <c r="B6" s="9">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" ht="104.05" customHeight="1">
+      <c r="A7" t="s" s="8">
+        <v>8</v>
+      </c>
+      <c r="B7" s="9">
+        <v>1</v>
+      </c>
+      <c r="C7" s="10">
+        <v>1</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" ht="80.05" customHeight="1">
+      <c r="A8" t="s" s="8">
+        <v>9</v>
+      </c>
+      <c r="B8" s="9">
+        <v>2</v>
+      </c>
+      <c r="C8" s="10">
+        <v>1</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" ht="68.05" customHeight="1">
+      <c r="A9" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="B9" s="9">
+        <v>2</v>
+      </c>
+      <c r="C9" s="10">
+        <v>1</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" ht="104.05" customHeight="1">
+      <c r="A10" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="B10" s="9">
+        <v>2</v>
+      </c>
+      <c r="C10" s="10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" ht="92.05" customHeight="1">
+      <c r="A11" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="B11" s="9">
+        <v>2</v>
+      </c>
+      <c r="C11" s="10">
+        <v>2</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" ht="92.05" customHeight="1">
+      <c r="A12" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="B12" s="9">
+        <v>2</v>
+      </c>
+      <c r="C12" s="10">
+        <v>2</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" ht="68.05" customHeight="1">
+      <c r="A13" t="s" s="8">
+        <v>14</v>
+      </c>
+      <c r="B13" s="9">
+        <v>2</v>
+      </c>
+      <c r="C13" s="10">
+        <v>2</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" ht="68.05" customHeight="1">
+      <c r="A14" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="B14" s="9">
+        <v>2</v>
+      </c>
+      <c r="C14" s="10">
+        <v>2</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" ht="56.05" customHeight="1">
+      <c r="A15" t="s" s="8">
+        <v>16</v>
+      </c>
+      <c r="B15" s="9">
+        <v>2</v>
+      </c>
+      <c r="C15" s="10">
+        <v>2</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" ht="176.05" customHeight="1">
+      <c r="A16" t="s" s="8">
+        <v>17</v>
+      </c>
+      <c r="B16" s="9">
+        <v>3</v>
+      </c>
+      <c r="C16" s="10">
+        <v>2</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" ht="116.05" customHeight="1">
+      <c r="A17" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B17" s="9">
+        <v>3</v>
+      </c>
+      <c r="C17" s="10">
+        <v>2</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" ht="116.05" customHeight="1">
+      <c r="A18" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="B18" s="9">
+        <v>3</v>
+      </c>
+      <c r="C18" s="10">
+        <v>3</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" ht="68.05" customHeight="1">
+      <c r="A19" t="s" s="8">
+        <v>20</v>
+      </c>
+      <c r="B19" s="9">
+        <v>3</v>
+      </c>
+      <c r="C19" s="10">
+        <v>3</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" ht="80.05" customHeight="1">
+      <c r="A20" t="s" s="8">
+        <v>21</v>
+      </c>
+      <c r="B20" s="9">
+        <v>3</v>
+      </c>
+      <c r="C20" s="10">
+        <v>3</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" ht="80.05" customHeight="1">
+      <c r="A21" t="s" s="8">
+        <v>22</v>
+      </c>
+      <c r="B21" s="9">
+        <v>3</v>
+      </c>
+      <c r="C21" s="10">
+        <v>3</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" ht="152.05" customHeight="1">
+      <c r="A22" t="s" s="8">
+        <v>23</v>
+      </c>
+      <c r="B22" s="9">
+        <v>4</v>
+      </c>
+      <c r="C22" s="10">
+        <v>3</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" ht="92.05" customHeight="1">
+      <c r="A23" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="B23" s="9">
+        <v>4</v>
+      </c>
+      <c r="C23" s="10">
+        <v>3</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+    </row>
+    <row r="24" ht="68.05" customHeight="1">
+      <c r="A24" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="B24" s="9">
+        <v>4</v>
+      </c>
+      <c r="C24" s="10">
+        <v>4</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+    </row>
+    <row r="25" ht="116.05" customHeight="1">
+      <c r="A25" t="s" s="8">
+        <v>26</v>
+      </c>
+      <c r="B25" s="9">
+        <v>4</v>
+      </c>
+      <c r="C25" s="10">
+        <v>4</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" ht="104.05" customHeight="1">
+      <c r="A26" t="s" s="8">
+        <v>27</v>
+      </c>
+      <c r="B26" s="9">
+        <v>4</v>
+      </c>
+      <c r="C26" s="10">
+        <v>4</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" ht="20.05" customHeight="1">
+      <c r="A27" s="12"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+    </row>
+    <row r="28" ht="20.05" customHeight="1">
+      <c r="A28" s="12"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+    </row>
+    <row r="29" ht="20.05" customHeight="1">
+      <c r="A29" s="12"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+    </row>
+    <row r="30" ht="20.05" customHeight="1">
+      <c r="A30" s="12"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+    </row>
+    <row r="31" ht="20.05" customHeight="1">
+      <c r="A31" s="12"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+    </row>
+    <row r="32" ht="20.05" customHeight="1">
+      <c r="A32" s="12"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+    </row>
+    <row r="33" ht="20.05" customHeight="1">
+      <c r="A33" s="12"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+    </row>
+    <row r="34" ht="20.05" customHeight="1">
+      <c r="A34" s="12"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+    </row>
+    <row r="35" ht="20.05" customHeight="1">
+      <c r="A35" s="12"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+    </row>
+    <row r="36" ht="20.05" customHeight="1">
+      <c r="A36" s="12"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+    </row>
+    <row r="37" ht="20.05" customHeight="1">
+      <c r="A37" s="12"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+    </row>
+    <row r="38" ht="20.05" customHeight="1">
+      <c r="A38" s="12"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+    </row>
+    <row r="39" ht="20.05" customHeight="1">
+      <c r="A39" s="12"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+    </row>
+    <row r="40" ht="20.05" customHeight="1">
+      <c r="A40" s="12"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+    </row>
+    <row r="41" ht="20.05" customHeight="1">
+      <c r="A41" s="12"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/story_xlsx_files/34.xlsx
+++ b/story_xlsx_files/34.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
   <si>
     <t>storyText</t>
   </si>
@@ -23,19 +23,22 @@
     <t>socialEvent</t>
   </si>
   <si>
-    <t>Charlie saw Alma as they walked into class, and motioned for her to come sit in the back next to him, since they had business to discuss.</t>
-  </si>
-  <si>
-    <t>Charlie and Alma were both economics students with entrepreneurial bents, both very busy, and both in the same class.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">After talking at a party, Charlie had discovered that Alma was looking for financing for her web development company, and had been talking with other members of his venture capital group about making an investment. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">They had come to a decision that morning, and he didn't want to wait until after class to discuss it with her. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The class was in a large auditorium, with small foldable desks on the side of each cushion chair. </t>
+    <t>Charlie saw Alma as they walked into class and motioned for her to come sit in the back next to him, since they had business to discuss.</t>
+  </si>
+  <si>
+    <t>Charlie and Alma were economics students with entrepreneurial bents; they were both very busy and in the same class.</t>
+  </si>
+  <si>
+    <t>After talking at a party, Charlie had discovered that Alma was looking for financing for her web development company.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It was serendipitous because he had been talking with other members of his venture capital group about making an investment. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">His financial group had come to a decision that morning, and he didn't want to wait until after class to discuss the proposal with Alma. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The class was in a large auditorium, with small, foldable desks on the side of each cushioned chair. </t>
   </si>
   <si>
     <t xml:space="preserve">There were large windows on both sides of the hall, and they could see the first flurries of a winter storm starting outside. </t>
@@ -50,7 +53,7 @@
     <t>She went into some clarifications about logistical matters for the final exam, while Charlie leaned over to Alma.</t>
   </si>
   <si>
-    <t xml:space="preserve"> “Okay so I’ve been thinking about your startup idea, and I’ve talked about it with my fellow investors.</t>
+    <t>“Okay so I’ve been thinking about your startup idea and talked about it with my fellow investors.</t>
   </si>
   <si>
     <t>We’d like to invest half of what you originally suggested, so rather than $30,000, we start with $15,000.</t>
@@ -59,7 +62,7 @@
     <t xml:space="preserve">We would see how the company does and then invest the other half later.” </t>
   </si>
   <si>
-    <t>Alma narrowed her eyes and pursed her lips, tapping her pen on her notebook.</t>
+    <t>Alma, tapping her pen on her notebook, narrowed her eyes and pursed her lips.</t>
   </si>
   <si>
     <t>She turned back to the lecture as she considered this.</t>
@@ -68,10 +71,10 @@
     <t xml:space="preserve">“The senate had conferred upon him the title of Augustus," the professor was saying, "the sacred and revered one, the restorer of traditional values, the city’s new religious leader, the restorer of temples. </t>
   </si>
   <si>
-    <t>He also sought to beautify Rome and make it into a new Athens, and to dispel the criticisms of Rome as disorganized and ugly.”</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Alma then offered her rebuttal, “I don’t know about that, it’s not going to be possible to implement our ideas effectively unless the project is fully funded. </t>
+    <t>He also sought to beautify Rome, make it into a new Athens, and dispel the criticisms of Rome as disorganized and ugly.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alma then offered her rebuttal, “I don’t know about that: it’s not going to be possible to implement our ideas effectively unless the project is fully funded. </t>
   </si>
   <si>
     <t xml:space="preserve">We would have to find other investors and that would set us back in our timeline. </t>
@@ -80,22 +83,22 @@
     <t xml:space="preserve">Our profit projections assumed we'd be starting relatively soon, not months down the line.” </t>
   </si>
   <si>
-    <t xml:space="preserve">They whispered back and forth during the whole class trying to work out a compromise. </t>
+    <t xml:space="preserve">They whispered back and forth during the whole class in order to work out a compromise. </t>
   </si>
   <si>
     <t>Finally, the class ended, and the professor dismissed the students with a reminder that the midterm paper was due on Thursday and that they should email their papers to their TA.</t>
   </si>
   <si>
-    <t xml:space="preserve">Everyone packed up their things and headed out of the lecture hall to get to their next class, except for Charlie and Alma. </t>
+    <t xml:space="preserve">Everyone packed up their things and headed out of the lecture hall to get to their next class except for Charlie and Alma. </t>
   </si>
   <si>
     <t xml:space="preserve">“Alright, so we’ll have the $30,000 wired to you by tomorrow,” Charlie said. </t>
   </si>
   <si>
-    <t xml:space="preserve">This wasn't ideal, but Alma had refused to budge, and his investment group had told him they were willing to pay the full amount if necessary. </t>
-  </si>
-  <si>
-    <t>They shook hands and walked out of the now-empty lecture hall, and made plans to sign the official paperwork the next day.</t>
+    <t xml:space="preserve">This wasn't ideal for Charlie, but Alma had refused to budge, and his investment group had told him they were willing to pay the full amount if necessary. </t>
+  </si>
+  <si>
+    <t>They shook hands and walked out of the now-empty lecture hall and made plans to sign the official paperwork the next day.</t>
   </si>
 </sst>
 </file>
@@ -1387,7 +1390,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
@@ -1444,7 +1447,7 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" ht="176.05" customHeight="1">
+    <row r="4" ht="104.05" customHeight="1">
       <c r="A4" t="s" s="8">
         <v>5</v>
       </c>
@@ -1459,7 +1462,7 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" ht="80.05" customHeight="1">
+    <row r="5" ht="116.05" customHeight="1">
       <c r="A5" t="s" s="8">
         <v>6</v>
       </c>
@@ -1474,7 +1477,7 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" ht="80.05" customHeight="1">
+    <row r="6" ht="116.05" customHeight="1">
       <c r="A6" t="s" s="8">
         <v>7</v>
       </c>
@@ -1489,7 +1492,7 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" ht="104.05" customHeight="1">
+    <row r="7" ht="80.05" customHeight="1">
       <c r="A7" t="s" s="8">
         <v>8</v>
       </c>
@@ -1504,12 +1507,12 @@
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" ht="80.05" customHeight="1">
+    <row r="8" ht="104.05" customHeight="1">
       <c r="A8" t="s" s="8">
         <v>9</v>
       </c>
       <c r="B8" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="10">
         <v>1</v>
@@ -1519,7 +1522,7 @@
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" ht="68.05" customHeight="1">
+    <row r="9" ht="80.05" customHeight="1">
       <c r="A9" t="s" s="8">
         <v>10</v>
       </c>
@@ -1534,7 +1537,7 @@
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" ht="104.05" customHeight="1">
+    <row r="10" ht="68.05" customHeight="1">
       <c r="A10" t="s" s="8">
         <v>11</v>
       </c>
@@ -1549,7 +1552,7 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" ht="92.05" customHeight="1">
+    <row r="11" ht="104.05" customHeight="1">
       <c r="A11" t="s" s="8">
         <v>12</v>
       </c>
@@ -1557,14 +1560,14 @@
         <v>2</v>
       </c>
       <c r="C11" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" ht="92.05" customHeight="1">
+    <row r="12" ht="80.05" customHeight="1">
       <c r="A12" t="s" s="8">
         <v>13</v>
       </c>
@@ -1579,7 +1582,7 @@
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" ht="68.05" customHeight="1">
+    <row r="13" ht="92.05" customHeight="1">
       <c r="A13" t="s" s="8">
         <v>14</v>
       </c>
@@ -1609,7 +1612,7 @@
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" ht="56.05" customHeight="1">
+    <row r="15" ht="80.05" customHeight="1">
       <c r="A15" t="s" s="8">
         <v>16</v>
       </c>
@@ -1624,12 +1627,12 @@
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" ht="176.05" customHeight="1">
+    <row r="16" ht="56.05" customHeight="1">
       <c r="A16" t="s" s="8">
         <v>17</v>
       </c>
       <c r="B16" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" s="10">
         <v>2</v>
@@ -1639,7 +1642,7 @@
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" ht="116.05" customHeight="1">
+    <row r="17" ht="176.05" customHeight="1">
       <c r="A17" t="s" s="8">
         <v>18</v>
       </c>
@@ -1654,7 +1657,7 @@
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" ht="116.05" customHeight="1">
+    <row r="18" ht="104.05" customHeight="1">
       <c r="A18" t="s" s="8">
         <v>19</v>
       </c>
@@ -1662,14 +1665,14 @@
         <v>3</v>
       </c>
       <c r="C18" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" ht="68.05" customHeight="1">
+    <row r="19" ht="116.05" customHeight="1">
       <c r="A19" t="s" s="8">
         <v>20</v>
       </c>
@@ -1684,7 +1687,7 @@
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" ht="80.05" customHeight="1">
+    <row r="20" ht="68.05" customHeight="1">
       <c r="A20" t="s" s="8">
         <v>21</v>
       </c>
@@ -1714,12 +1717,12 @@
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" ht="152.05" customHeight="1">
+    <row r="22" ht="80.05" customHeight="1">
       <c r="A22" t="s" s="8">
         <v>23</v>
       </c>
       <c r="B22" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C22" s="10">
         <v>3</v>
@@ -1729,7 +1732,7 @@
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" ht="92.05" customHeight="1">
+    <row r="23" ht="152.05" customHeight="1">
       <c r="A23" t="s" s="8">
         <v>24</v>
       </c>
@@ -1744,7 +1747,7 @@
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" ht="68.05" customHeight="1">
+    <row r="24" ht="92.05" customHeight="1">
       <c r="A24" t="s" s="8">
         <v>25</v>
       </c>
@@ -1752,14 +1755,14 @@
         <v>4</v>
       </c>
       <c r="C24" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" ht="116.05" customHeight="1">
+    <row r="25" ht="68.05" customHeight="1">
       <c r="A25" t="s" s="8">
         <v>26</v>
       </c>
@@ -1774,7 +1777,7 @@
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" ht="104.05" customHeight="1">
+    <row r="26" ht="116.05" customHeight="1">
       <c r="A26" t="s" s="8">
         <v>27</v>
       </c>
@@ -1789,10 +1792,16 @@
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" ht="20.05" customHeight="1">
-      <c r="A27" s="12"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="11"/>
+    <row r="27" ht="104.05" customHeight="1">
+      <c r="A27" t="s" s="8">
+        <v>28</v>
+      </c>
+      <c r="B27" s="9">
+        <v>4</v>
+      </c>
+      <c r="C27" s="10">
+        <v>4</v>
+      </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
@@ -1924,6 +1933,15 @@
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
     </row>
+    <row r="42" ht="20.05" customHeight="1">
+      <c r="A42" s="12"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+    </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/story_xlsx_files/34.xlsx
+++ b/story_xlsx_files/34.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
   <si>
     <t>storyText</t>
   </si>
@@ -23,10 +23,13 @@
     <t>socialEvent</t>
   </si>
   <si>
-    <t>Charlie saw Alma as they walked into class and motioned for her to come sit in the back next to him, since they had business to discuss.</t>
-  </si>
-  <si>
-    <t>Charlie and Alma were economics students with entrepreneurial bents; they were both very busy and in the same class.</t>
+    <t>Charlie saw Alma as they walked into class and he motioned for her to come sit in the back next to him: they had business to discuss.</t>
+  </si>
+  <si>
+    <t>Charlie and Alma were both economics students with entrepreneurial bents.</t>
+  </si>
+  <si>
+    <t>They were also both very busy and in the same class.</t>
   </si>
   <si>
     <t>After talking at a party, Charlie had discovered that Alma was looking for financing for her web development company.</t>
@@ -35,28 +38,31 @@
     <t xml:space="preserve">It was serendipitous because he had been talking with other members of his venture capital group about making an investment. </t>
   </si>
   <si>
-    <t xml:space="preserve">His financial group had come to a decision that morning, and he didn't want to wait until after class to discuss the proposal with Alma. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The class was in a large auditorium, with small, foldable desks on the side of each cushioned chair. </t>
+    <t xml:space="preserve">His financial group had come to a decision that morning about Alma’s idea, and he didn't want to wait until after class to discuss the proposal with her. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The class was in a large auditorium with small, foldable desks on the side of each cushioned chair. </t>
   </si>
   <si>
     <t xml:space="preserve">There were large windows on both sides of the hall, and they could see the first flurries of a winter storm starting outside. </t>
   </si>
   <si>
-    <t xml:space="preserve">"Here we are at Lecture Seven already, in History of the Eternal City," said the professor. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "We're going to talk today about the age of the first Roman emperor, Augustus.” </t>
-  </si>
-  <si>
-    <t>She went into some clarifications about logistical matters for the final exam, while Charlie leaned over to Alma.</t>
-  </si>
-  <si>
-    <t>“Okay so I’ve been thinking about your startup idea and talked about it with my fellow investors.</t>
-  </si>
-  <si>
-    <t>We’d like to invest half of what you originally suggested, so rather than $30,000, we start with $15,000.</t>
+    <t xml:space="preserve">"Here we are at Lecture Seven already in History of the Eternal City," said the professor. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"We're going to talk today about the age of the first Roman emperor, Augustus.” </t>
+  </si>
+  <si>
+    <t>She went into some recap of the last lecture, and Charlie took this as an opportunity to start talking to Alma.</t>
+  </si>
+  <si>
+    <t>“Okay so I’ve been thinking about your startup idea, and I have talked about it with my fellow investors.</t>
+  </si>
+  <si>
+    <t>We’d like to invest half of what you originally suggested.</t>
+  </si>
+  <si>
+    <t>Rather than $30,000, we start with $15,000.</t>
   </si>
   <si>
     <t xml:space="preserve">We would see how the company does and then invest the other half later.” </t>
@@ -71,10 +77,10 @@
     <t xml:space="preserve">“The senate had conferred upon him the title of Augustus," the professor was saying, "the sacred and revered one, the restorer of traditional values, the city’s new religious leader, the restorer of temples. </t>
   </si>
   <si>
-    <t>He also sought to beautify Rome, make it into a new Athens, and dispel the criticisms of Rome as disorganized and ugly.”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alma then offered her rebuttal, “I don’t know about that: it’s not going to be possible to implement our ideas effectively unless the project is fully funded. </t>
+    <t>Augustus also sought to beautify Rome, make it into a new Athens, and dispel the criticisms of Rome as disorganized and ugly.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alma turned back to Charlie and offered her rebuttal, “I don’t know about that: it’s not going to be possible to implement our ideas effectively unless the project is fully funded. </t>
   </si>
   <si>
     <t xml:space="preserve">We would have to find other investors and that would set us back in our timeline. </t>
@@ -86,10 +92,10 @@
     <t xml:space="preserve">They whispered back and forth during the whole class in order to work out a compromise. </t>
   </si>
   <si>
-    <t>Finally, the class ended, and the professor dismissed the students with a reminder that the midterm paper was due on Thursday and that they should email their papers to their TA.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Everyone packed up their things and headed out of the lecture hall to get to their next class except for Charlie and Alma. </t>
+    <t>Finally, the class ended, and the professor dismissed the students with a reminder that the midterm paper was due on Thursday and that they should email their papers to the TA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Everyone, except Charlie and Alma, packed up their things and headed out of the lecture hall to get to their next class. </t>
   </si>
   <si>
     <t xml:space="preserve">“Alright, so we’ll have the $30,000 wired to you by tomorrow,” Charlie said. </t>
@@ -98,7 +104,7 @@
     <t xml:space="preserve">This wasn't ideal for Charlie, but Alma had refused to budge, and his investment group had told him they were willing to pay the full amount if necessary. </t>
   </si>
   <si>
-    <t>They shook hands and walked out of the now-empty lecture hall and made plans to sign the official paperwork the next day.</t>
+    <t>They shook hands, walked out of the now-empty lecture hall, and made plans to sign the official paperwork the next day.</t>
   </si>
 </sst>
 </file>
@@ -112,7 +118,7 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <name val="Helvetica Neue Medium"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1390,7 +1396,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
@@ -1398,7 +1404,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1417,7 +1429,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" ht="116.25" customHeight="1">
+    <row r="2" ht="104.25" customHeight="1">
       <c r="A2" t="s" s="4">
         <v>3</v>
       </c>
@@ -1432,7 +1444,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" ht="104.05" customHeight="1">
+    <row r="3" ht="80.05" customHeight="1">
       <c r="A3" t="s" s="8">
         <v>4</v>
       </c>
@@ -1447,7 +1459,7 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" ht="104.05" customHeight="1">
+    <row r="4" ht="56.05" customHeight="1">
       <c r="A4" t="s" s="8">
         <v>5</v>
       </c>
@@ -1462,7 +1474,7 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" ht="116.05" customHeight="1">
+    <row r="5" ht="104.05" customHeight="1">
       <c r="A5" t="s" s="8">
         <v>6</v>
       </c>
@@ -1492,7 +1504,7 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" ht="80.05" customHeight="1">
+    <row r="7" ht="128.05" customHeight="1">
       <c r="A7" t="s" s="8">
         <v>8</v>
       </c>
@@ -1507,7 +1519,7 @@
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" ht="104.05" customHeight="1">
+    <row r="8" ht="80.05" customHeight="1">
       <c r="A8" t="s" s="8">
         <v>9</v>
       </c>
@@ -1522,12 +1534,12 @@
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" ht="80.05" customHeight="1">
+    <row r="9" ht="104.05" customHeight="1">
       <c r="A9" t="s" s="8">
         <v>10</v>
       </c>
       <c r="B9" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" s="10">
         <v>1</v>
@@ -1537,7 +1549,7 @@
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" ht="68.05" customHeight="1">
+    <row r="10" ht="80.05" customHeight="1">
       <c r="A10" t="s" s="8">
         <v>11</v>
       </c>
@@ -1552,7 +1564,7 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" ht="104.05" customHeight="1">
+    <row r="11" ht="68.05" customHeight="1">
       <c r="A11" t="s" s="8">
         <v>12</v>
       </c>
@@ -1567,7 +1579,7 @@
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" ht="80.05" customHeight="1">
+    <row r="12" ht="92.05" customHeight="1">
       <c r="A12" t="s" s="8">
         <v>13</v>
       </c>
@@ -1575,14 +1587,14 @@
         <v>2</v>
       </c>
       <c r="C12" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" ht="92.05" customHeight="1">
+    <row r="13" ht="80.05" customHeight="1">
       <c r="A13" t="s" s="8">
         <v>14</v>
       </c>
@@ -1597,7 +1609,7 @@
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" ht="68.05" customHeight="1">
+    <row r="14" ht="56.05" customHeight="1">
       <c r="A14" t="s" s="8">
         <v>15</v>
       </c>
@@ -1612,7 +1624,7 @@
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" ht="80.05" customHeight="1">
+    <row r="15" ht="44.05" customHeight="1">
       <c r="A15" t="s" s="8">
         <v>16</v>
       </c>
@@ -1627,7 +1639,7 @@
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" ht="56.05" customHeight="1">
+    <row r="16" ht="68.05" customHeight="1">
       <c r="A16" t="s" s="8">
         <v>17</v>
       </c>
@@ -1642,12 +1654,12 @@
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" ht="176.05" customHeight="1">
+    <row r="17" ht="80.05" customHeight="1">
       <c r="A17" t="s" s="8">
         <v>18</v>
       </c>
       <c r="B17" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" s="10">
         <v>2</v>
@@ -1657,12 +1669,12 @@
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" ht="104.05" customHeight="1">
+    <row r="18" ht="56.05" customHeight="1">
       <c r="A18" t="s" s="8">
         <v>19</v>
       </c>
       <c r="B18" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18" s="10">
         <v>2</v>
@@ -1672,7 +1684,7 @@
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" ht="116.05" customHeight="1">
+    <row r="19" ht="176.05" customHeight="1">
       <c r="A19" t="s" s="8">
         <v>20</v>
       </c>
@@ -1680,14 +1692,14 @@
         <v>3</v>
       </c>
       <c r="C19" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" ht="68.05" customHeight="1">
+    <row r="20" ht="116.05" customHeight="1">
       <c r="A20" t="s" s="8">
         <v>21</v>
       </c>
@@ -1695,14 +1707,14 @@
         <v>3</v>
       </c>
       <c r="C20" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" ht="80.05" customHeight="1">
+    <row r="21" ht="140.05" customHeight="1">
       <c r="A21" t="s" s="8">
         <v>22</v>
       </c>
@@ -1717,7 +1729,7 @@
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" ht="80.05" customHeight="1">
+    <row r="22" ht="68.05" customHeight="1">
       <c r="A22" t="s" s="8">
         <v>23</v>
       </c>
@@ -1732,12 +1744,12 @@
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" ht="152.05" customHeight="1">
+    <row r="23" ht="80.05" customHeight="1">
       <c r="A23" t="s" s="8">
         <v>24</v>
       </c>
       <c r="B23" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23" s="10">
         <v>3</v>
@@ -1747,12 +1759,12 @@
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" ht="92.05" customHeight="1">
+    <row r="24" ht="80.05" customHeight="1">
       <c r="A24" t="s" s="8">
         <v>25</v>
       </c>
       <c r="B24" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C24" s="10">
         <v>3</v>
@@ -1762,7 +1774,7 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" ht="68.05" customHeight="1">
+    <row r="25" ht="152.05" customHeight="1">
       <c r="A25" t="s" s="8">
         <v>26</v>
       </c>
@@ -1770,14 +1782,14 @@
         <v>4</v>
       </c>
       <c r="C25" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" ht="116.05" customHeight="1">
+    <row r="26" ht="92.05" customHeight="1">
       <c r="A26" t="s" s="8">
         <v>27</v>
       </c>
@@ -1785,14 +1797,14 @@
         <v>4</v>
       </c>
       <c r="C26" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" ht="104.05" customHeight="1">
+    <row r="27" ht="68.05" customHeight="1">
       <c r="A27" t="s" s="8">
         <v>28</v>
       </c>
@@ -1807,19 +1819,31 @@
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" ht="20.05" customHeight="1">
-      <c r="A28" s="12"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="11"/>
+    <row r="28" ht="116.05" customHeight="1">
+      <c r="A28" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="B28" s="9">
+        <v>4</v>
+      </c>
+      <c r="C28" s="10">
+        <v>4</v>
+      </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" ht="20.05" customHeight="1">
-      <c r="A29" s="12"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="11"/>
+    <row r="29" ht="104.05" customHeight="1">
+      <c r="A29" t="s" s="8">
+        <v>30</v>
+      </c>
+      <c r="B29" s="9">
+        <v>4</v>
+      </c>
+      <c r="C29" s="10">
+        <v>4</v>
+      </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
@@ -1942,6 +1966,24 @@
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
     </row>
+    <row r="43" ht="20.05" customHeight="1">
+      <c r="A43" s="12"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+    </row>
+    <row r="44" ht="20.05" customHeight="1">
+      <c r="A44" s="12"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+    </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/story_xlsx_files/34.xlsx
+++ b/story_xlsx_files/34.xlsx
@@ -47,10 +47,10 @@
     <t xml:space="preserve">There were large windows on both sides of the hall, and they could see the first flurries of a winter storm starting outside. </t>
   </si>
   <si>
-    <t xml:space="preserve">"Here we are at Lecture Seven already in History of the Eternal City," said the professor. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"We're going to talk today about the age of the first Roman emperor, Augustus.” </t>
+    <t xml:space="preserve">“Here we are at Lecture Seven already in History of the Eternal City,” said the professor. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">“We're going to talk today about the age of the first Roman emperor: Augustus.” </t>
   </si>
   <si>
     <t>She went into some recap of the last lecture, and Charlie took this as an opportunity to start talking to Alma.</t>
@@ -74,7 +74,7 @@
     <t>She turned back to the lecture as she considered this.</t>
   </si>
   <si>
-    <t xml:space="preserve">“The senate had conferred upon him the title of Augustus," the professor was saying, "the sacred and revered one, the restorer of traditional values, the city’s new religious leader, the restorer of temples. </t>
+    <t xml:space="preserve">The professor was going on: “The senate had conferred upon him the title of Augustus the sacred and revered one, the restorer of traditional values, the city’s new religious leader, the restorer of temples. </t>
   </si>
   <si>
     <t>Augustus also sought to beautify Rome, make it into a new Athens, and dispel the criticisms of Rome as disorganized and ugly.”</t>
@@ -118,7 +118,7 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue Medium"/>
+      <name val="Helvetica Neue"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1404,13 +1404,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/story_xlsx_files/34.xlsx
+++ b/story_xlsx_files/34.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
   <si>
     <t>storyText</t>
   </si>
@@ -21,6 +21,9 @@
   </si>
   <si>
     <t>socialEvent</t>
+  </si>
+  <si>
+    <t>story</t>
   </si>
   <si>
     <t>Charlie saw Alma as they walked into class and he motioned for her to come sit in the back next to him: they had business to discuss.</t>
@@ -118,7 +121,7 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <name val="Helvetica Neue Medium"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1404,7 +1407,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1418,14 +1427,16 @@
       <c r="C1" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
+      <c r="D1" t="s" s="2">
+        <v>3</v>
+      </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
     <row r="2" ht="104.25" customHeight="1">
       <c r="A2" t="s" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -1433,14 +1444,16 @@
       <c r="C2" s="6">
         <v>1</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="6">
+        <v>34</v>
+      </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
     <row r="3" ht="80.05" customHeight="1">
       <c r="A3" t="s" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="9">
         <v>1</v>
@@ -1455,7 +1468,7 @@
     </row>
     <row r="4" ht="56.05" customHeight="1">
       <c r="A4" t="s" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="9">
         <v>1</v>
@@ -1470,7 +1483,7 @@
     </row>
     <row r="5" ht="104.05" customHeight="1">
       <c r="A5" t="s" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="9">
         <v>1</v>
@@ -1485,7 +1498,7 @@
     </row>
     <row r="6" ht="116.05" customHeight="1">
       <c r="A6" t="s" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="9">
         <v>1</v>
@@ -1500,7 +1513,7 @@
     </row>
     <row r="7" ht="128.05" customHeight="1">
       <c r="A7" t="s" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" s="9">
         <v>1</v>
@@ -1515,7 +1528,7 @@
     </row>
     <row r="8" ht="80.05" customHeight="1">
       <c r="A8" t="s" s="8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" s="9">
         <v>1</v>
@@ -1530,7 +1543,7 @@
     </row>
     <row r="9" ht="104.05" customHeight="1">
       <c r="A9" t="s" s="8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" s="9">
         <v>1</v>
@@ -1545,7 +1558,7 @@
     </row>
     <row r="10" ht="80.05" customHeight="1">
       <c r="A10" t="s" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" s="9">
         <v>2</v>
@@ -1560,7 +1573,7 @@
     </row>
     <row r="11" ht="68.05" customHeight="1">
       <c r="A11" t="s" s="8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" s="9">
         <v>2</v>
@@ -1575,7 +1588,7 @@
     </row>
     <row r="12" ht="92.05" customHeight="1">
       <c r="A12" t="s" s="8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" s="9">
         <v>2</v>
@@ -1590,7 +1603,7 @@
     </row>
     <row r="13" ht="80.05" customHeight="1">
       <c r="A13" t="s" s="8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" s="9">
         <v>2</v>
@@ -1605,7 +1618,7 @@
     </row>
     <row r="14" ht="56.05" customHeight="1">
       <c r="A14" t="s" s="8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" s="9">
         <v>2</v>
@@ -1620,7 +1633,7 @@
     </row>
     <row r="15" ht="44.05" customHeight="1">
       <c r="A15" t="s" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" s="9">
         <v>2</v>
@@ -1635,7 +1648,7 @@
     </row>
     <row r="16" ht="68.05" customHeight="1">
       <c r="A16" t="s" s="8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16" s="9">
         <v>2</v>
@@ -1650,7 +1663,7 @@
     </row>
     <row r="17" ht="80.05" customHeight="1">
       <c r="A17" t="s" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17" s="9">
         <v>2</v>
@@ -1665,7 +1678,7 @@
     </row>
     <row r="18" ht="56.05" customHeight="1">
       <c r="A18" t="s" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18" s="9">
         <v>2</v>
@@ -1680,7 +1693,7 @@
     </row>
     <row r="19" ht="176.05" customHeight="1">
       <c r="A19" t="s" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B19" s="9">
         <v>3</v>
@@ -1695,7 +1708,7 @@
     </row>
     <row r="20" ht="116.05" customHeight="1">
       <c r="A20" t="s" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B20" s="9">
         <v>3</v>
@@ -1710,7 +1723,7 @@
     </row>
     <row r="21" ht="140.05" customHeight="1">
       <c r="A21" t="s" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B21" s="9">
         <v>3</v>
@@ -1725,7 +1738,7 @@
     </row>
     <row r="22" ht="68.05" customHeight="1">
       <c r="A22" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" s="9">
         <v>3</v>
@@ -1740,7 +1753,7 @@
     </row>
     <row r="23" ht="80.05" customHeight="1">
       <c r="A23" t="s" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B23" s="9">
         <v>3</v>
@@ -1755,7 +1768,7 @@
     </row>
     <row r="24" ht="80.05" customHeight="1">
       <c r="A24" t="s" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B24" s="9">
         <v>3</v>
@@ -1770,7 +1783,7 @@
     </row>
     <row r="25" ht="152.05" customHeight="1">
       <c r="A25" t="s" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B25" s="9">
         <v>4</v>
@@ -1785,7 +1798,7 @@
     </row>
     <row r="26" ht="92.05" customHeight="1">
       <c r="A26" t="s" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B26" s="9">
         <v>4</v>
@@ -1800,7 +1813,7 @@
     </row>
     <row r="27" ht="68.05" customHeight="1">
       <c r="A27" t="s" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B27" s="9">
         <v>4</v>
@@ -1815,7 +1828,7 @@
     </row>
     <row r="28" ht="116.05" customHeight="1">
       <c r="A28" t="s" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B28" s="9">
         <v>4</v>
@@ -1830,7 +1843,7 @@
     </row>
     <row r="29" ht="104.05" customHeight="1">
       <c r="A29" t="s" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B29" s="9">
         <v>4</v>

--- a/story_xlsx_files/34.xlsx
+++ b/story_xlsx_files/34.xlsx
@@ -35,25 +35,25 @@
     <t>They were also both very busy and in the same class.</t>
   </si>
   <si>
-    <t>After talking at a party, Charlie had discovered that Alma was looking for financing for her web development company.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It was serendipitous because he had been talking with other members of his venture capital group about making an investment. </t>
+    <t>After talking at a party, Charlie had discovered that Alma was looking for financing for her web development company of which she was the founder and CEO.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It was serendipitous because he was an investment analyst for a group on campus and he had been talking with other members of this venture capital group about making a new investment. </t>
   </si>
   <si>
     <t xml:space="preserve">His financial group had come to a decision that morning about Alma’s idea, and he didn't want to wait until after class to discuss the proposal with her. </t>
   </si>
   <si>
-    <t xml:space="preserve">The class was in a large auditorium with small, foldable desks on the side of each cushioned chair. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">There were large windows on both sides of the hall, and they could see the first flurries of a winter storm starting outside. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">“Here we are at Lecture Seven already in History of the Eternal City,” said the professor. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">“We're going to talk today about the age of the first Roman emperor: Augustus.” </t>
+    <t xml:space="preserve">The class was in a medium-sized auditorium which was brightly lit and very modern-looking. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">There were three projector screens and tables for each row of the audience which had power outlets and USB ports. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Here we are at Lecture Seven already in Archaeology of Rome” said the professor. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">“We're going to talk today about Augustus, an incredibly important influence in Roman architecture.” </t>
   </si>
   <si>
     <t>She went into some recap of the last lecture, and Charlie took this as an opportunity to start talking to Alma.</t>
@@ -65,7 +65,7 @@
     <t>We’d like to invest half of what you originally suggested.</t>
   </si>
   <si>
-    <t>Rather than $30,000, we start with $15,000.</t>
+    <t>So we propose we start with wiring $28,000.</t>
   </si>
   <si>
     <t xml:space="preserve">We would see how the company does and then invest the other half later.” </t>
@@ -86,7 +86,7 @@
     <t xml:space="preserve">Alma turned back to Charlie and offered her rebuttal, “I don’t know about that: it’s not going to be possible to implement our ideas effectively unless the project is fully funded. </t>
   </si>
   <si>
-    <t xml:space="preserve">We would have to find other investors and that would set us back in our timeline. </t>
+    <t xml:space="preserve">We would have to find other investors like your competitor on campus, Churchill Capital Group, and that would set us back in our timeline. </t>
   </si>
   <si>
     <t xml:space="preserve">Our profit projections assumed we'd be starting relatively soon, not months down the line.” </t>
@@ -107,7 +107,7 @@
     <t xml:space="preserve">This wasn't ideal for Charlie, but Alma had refused to budge, and his investment group had told him they were willing to pay the full amount if necessary. </t>
   </si>
   <si>
-    <t>They shook hands, walked out of the now-empty lecture hall, and made plans to sign the official paperwork the next day.</t>
+    <t>They hugged in confirmation of the deal, walked out of the now-empty lecture hall, and made plans to sign the official paperwork the next day.</t>
   </si>
 </sst>
 </file>
@@ -121,7 +121,7 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue Medium"/>
+      <name val="Helvetica Neue"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1407,13 +1407,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1481,7 +1475,7 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" ht="104.05" customHeight="1">
+    <row r="5" ht="128.05" customHeight="1">
       <c r="A5" t="s" s="8">
         <v>7</v>
       </c>
@@ -1496,7 +1490,7 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" ht="116.05" customHeight="1">
+    <row r="6" ht="164.05" customHeight="1">
       <c r="A6" t="s" s="8">
         <v>8</v>
       </c>
@@ -1541,7 +1535,7 @@
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" ht="104.05" customHeight="1">
+    <row r="9" ht="92.05" customHeight="1">
       <c r="A9" t="s" s="8">
         <v>11</v>
       </c>
@@ -1571,7 +1565,7 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" ht="68.05" customHeight="1">
+    <row r="11" ht="104.05" customHeight="1">
       <c r="A11" t="s" s="8">
         <v>13</v>
       </c>
@@ -1736,7 +1730,7 @@
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" ht="68.05" customHeight="1">
+    <row r="22" ht="116.05" customHeight="1">
       <c r="A22" t="s" s="8">
         <v>24</v>
       </c>
@@ -1841,7 +1835,7 @@
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" ht="104.05" customHeight="1">
+    <row r="29" ht="116.05" customHeight="1">
       <c r="A29" t="s" s="8">
         <v>31</v>
       </c>

--- a/story_xlsx_files/34.xlsx
+++ b/story_xlsx_files/34.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
   <si>
     <t>storyText</t>
   </si>
@@ -26,10 +26,10 @@
     <t>story</t>
   </si>
   <si>
-    <t>Charlie saw Alma as they walked into class and he motioned for her to come sit in the back next to him: they had business to discuss.</t>
-  </si>
-  <si>
-    <t>Charlie and Alma were both economics students with entrepreneurial bents.</t>
+    <t>Charlie saw Alma as they walked into class and he motioned for her to come sit in the back next to him: they had a deal to discuss.</t>
+  </si>
+  <si>
+    <t>Charlie and Alma were both history majors with entrepreneurial bents.</t>
   </si>
   <si>
     <t>They were also both very busy and in the same class.</t>
@@ -38,7 +38,7 @@
     <t>After talking at a party, Charlie had discovered that Alma was looking for financing for her web development company of which she was the founder and CEO.</t>
   </si>
   <si>
-    <t xml:space="preserve">It was serendipitous because he was an investment analyst for a group on campus and he had been talking with other members of this venture capital group about making a new investment. </t>
+    <t xml:space="preserve">It was serendipitous because he was an investment analyst for a student finance group on campus and he had been talking with other members of the group about making a new investment. </t>
   </si>
   <si>
     <t xml:space="preserve">His financial group had come to a decision that morning about Alma’s idea, and he didn't want to wait until after class to discuss the proposal with her. </t>
@@ -47,19 +47,19 @@
     <t xml:space="preserve">The class was in a medium-sized auditorium which was brightly lit and very modern-looking. </t>
   </si>
   <si>
-    <t xml:space="preserve">There were three projector screens and tables for each row of the audience which had power outlets and USB ports. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">“Here we are at Lecture Seven already in Archaeology of Rome” said the professor. </t>
+    <t xml:space="preserve">There were three projector screens in the front and each row of the audience had a table with power outlets and USB ports. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Here we are at Lecture Seven already of Archaeology of Rome” said the professor. </t>
   </si>
   <si>
     <t xml:space="preserve">“We're going to talk today about Augustus, an incredibly important influence in Roman architecture.” </t>
   </si>
   <si>
-    <t>She went into some recap of the last lecture, and Charlie took this as an opportunity to start talking to Alma.</t>
-  </si>
-  <si>
-    <t>“Okay so I’ve been thinking about your startup idea, and I have talked about it with my fellow investors.</t>
+    <t>She went into some recap of the last lecture.</t>
+  </si>
+  <si>
+    <t>Charlie turned to Alma and said, “Okay, so I’ve been thinking about your startup idea, and I have talked about it with my fellow investors.</t>
   </si>
   <si>
     <t>We’d like to invest half of what you originally suggested.</t>
@@ -74,16 +74,13 @@
     <t>Alma, tapping her pen on her notebook, narrowed her eyes and pursed her lips.</t>
   </si>
   <si>
-    <t>She turned back to the lecture as she considered this.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The professor was going on: “The senate had conferred upon him the title of Augustus the sacred and revered one, the restorer of traditional values, the city’s new religious leader, the restorer of temples. </t>
+    <t xml:space="preserve">The professor said, “The senate had conferred upon him the title of Augustus the sacred and revered one, the restorer of traditional values, the city’s new religious leader, the restorer of temples. </t>
   </si>
   <si>
     <t>Augustus also sought to beautify Rome, make it into a new Athens, and dispel the criticisms of Rome as disorganized and ugly.”</t>
   </si>
   <si>
-    <t xml:space="preserve">Alma turned back to Charlie and offered her rebuttal, “I don’t know about that: it’s not going to be possible to implement our ideas effectively unless the project is fully funded. </t>
+    <t xml:space="preserve">Alma turned to Charlie and offered her rebuttal, “I don’t know about that: it’s not going to be possible to implement our ideas effectively unless the project is fully funded. </t>
   </si>
   <si>
     <t xml:space="preserve">We would have to find other investors like your competitor on campus, Churchill Capital Group, and that would set us back in our timeline. </t>
@@ -92,10 +89,10 @@
     <t xml:space="preserve">Our profit projections assumed we'd be starting relatively soon, not months down the line.” </t>
   </si>
   <si>
-    <t xml:space="preserve">They whispered back and forth during the whole class in order to work out a compromise. </t>
-  </si>
-  <si>
-    <t>Finally, the class ended, and the professor dismissed the students with a reminder that the midterm paper was due on Thursday and that they should email their papers to the TA.</t>
+    <t xml:space="preserve">They whispered back and forth during the entire class working out a compromise. </t>
+  </si>
+  <si>
+    <t>The class ended, and the professor dismissed the students with a reminder that the midterm paper was due on Thursday and that they should email their papers to the TA.</t>
   </si>
   <si>
     <t xml:space="preserve">Everyone, except Charlie and Alma, packed up their things and headed out of the lecture hall to get to their next class. </t>
@@ -1399,7 +1396,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
@@ -1445,7 +1442,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" ht="80.05" customHeight="1">
+    <row r="3" ht="68.05" customHeight="1">
       <c r="A3" t="s" s="8">
         <v>5</v>
       </c>
@@ -1535,7 +1532,7 @@
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" ht="92.05" customHeight="1">
+    <row r="9" ht="104.05" customHeight="1">
       <c r="A9" t="s" s="8">
         <v>11</v>
       </c>
@@ -1580,7 +1577,7 @@
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" ht="92.05" customHeight="1">
+    <row r="12" ht="44.05" customHeight="1">
       <c r="A12" t="s" s="8">
         <v>14</v>
       </c>
@@ -1595,7 +1592,7 @@
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" ht="80.05" customHeight="1">
+    <row r="13" ht="116.05" customHeight="1">
       <c r="A13" t="s" s="8">
         <v>15</v>
       </c>
@@ -1670,12 +1667,12 @@
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" ht="56.05" customHeight="1">
+    <row r="18" ht="164.05" customHeight="1">
       <c r="A18" t="s" s="8">
         <v>20</v>
       </c>
       <c r="B18" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18" s="10">
         <v>2</v>
@@ -1685,7 +1682,7 @@
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" ht="176.05" customHeight="1">
+    <row r="19" ht="116.05" customHeight="1">
       <c r="A19" t="s" s="8">
         <v>21</v>
       </c>
@@ -1700,7 +1697,7 @@
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" ht="116.05" customHeight="1">
+    <row r="20" ht="140.05" customHeight="1">
       <c r="A20" t="s" s="8">
         <v>22</v>
       </c>
@@ -1708,14 +1705,14 @@
         <v>3</v>
       </c>
       <c r="C20" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" ht="140.05" customHeight="1">
+    <row r="21" ht="116.05" customHeight="1">
       <c r="A21" t="s" s="8">
         <v>23</v>
       </c>
@@ -1730,7 +1727,7 @@
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" ht="116.05" customHeight="1">
+    <row r="22" ht="80.05" customHeight="1">
       <c r="A22" t="s" s="8">
         <v>24</v>
       </c>
@@ -1745,7 +1742,7 @@
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" ht="80.05" customHeight="1">
+    <row r="23" ht="68.05" customHeight="1">
       <c r="A23" t="s" s="8">
         <v>25</v>
       </c>
@@ -1760,12 +1757,12 @@
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" ht="80.05" customHeight="1">
+    <row r="24" ht="140.05" customHeight="1">
       <c r="A24" t="s" s="8">
         <v>26</v>
       </c>
       <c r="B24" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C24" s="10">
         <v>3</v>
@@ -1775,7 +1772,7 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" ht="152.05" customHeight="1">
+    <row r="25" ht="92.05" customHeight="1">
       <c r="A25" t="s" s="8">
         <v>27</v>
       </c>
@@ -1790,7 +1787,7 @@
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" ht="92.05" customHeight="1">
+    <row r="26" ht="68.05" customHeight="1">
       <c r="A26" t="s" s="8">
         <v>28</v>
       </c>
@@ -1798,14 +1795,14 @@
         <v>4</v>
       </c>
       <c r="C26" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" ht="68.05" customHeight="1">
+    <row r="27" ht="116.05" customHeight="1">
       <c r="A27" t="s" s="8">
         <v>29</v>
       </c>
@@ -1835,16 +1832,10 @@
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" ht="116.05" customHeight="1">
-      <c r="A29" t="s" s="8">
-        <v>31</v>
-      </c>
-      <c r="B29" s="9">
-        <v>4</v>
-      </c>
-      <c r="C29" s="10">
-        <v>4</v>
-      </c>
+    <row r="29" ht="20.05" customHeight="1">
+      <c r="A29" s="12"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="11"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
@@ -1976,15 +1967,6 @@
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
     </row>
-    <row r="44" ht="20.05" customHeight="1">
-      <c r="A44" s="12"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-    </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/story_xlsx_files/34.xlsx
+++ b/story_xlsx_files/34.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">“Here we are at Lecture Seven already of Archaeology of Rome” said the professor. </t>
   </si>
   <si>
-    <t xml:space="preserve">“We're going to talk today about Augustus, an incredibly important influence in Roman architecture.” </t>
+    <t xml:space="preserve">“The topic for today is Augustus, an incredibly important influence in Roman architecture.” </t>
   </si>
   <si>
     <t>She went into some recap of the last lecture.</t>
@@ -1562,7 +1562,7 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" ht="104.05" customHeight="1">
+    <row r="11" ht="92.05" customHeight="1">
       <c r="A11" t="s" s="8">
         <v>13</v>
       </c>

--- a/story_xlsx_files/34.xlsx
+++ b/story_xlsx_files/34.xlsx
@@ -26,13 +26,13 @@
     <t>story</t>
   </si>
   <si>
-    <t>Charlie saw Alma as they walked into class and he motioned for her to come sit in the back next to him: they had a deal to discuss.</t>
+    <t>Charlie saw Alma as they walked into class, and he motioned for her to come sit in the back next to him because they had a deal to discuss.</t>
   </si>
   <si>
     <t>Charlie and Alma were both history majors with entrepreneurial bents.</t>
   </si>
   <si>
-    <t>They were also both very busy and in the same class.</t>
+    <t>They were also both very busy and happened to be in the same class.</t>
   </si>
   <si>
     <t>After talking at a party, Charlie had discovered that Alma was looking for financing for her web development company of which she was the founder and CEO.</t>
@@ -41,7 +41,7 @@
     <t xml:space="preserve">It was serendipitous because he was an investment analyst for a student finance group on campus and he had been talking with other members of the group about making a new investment. </t>
   </si>
   <si>
-    <t xml:space="preserve">His financial group had come to a decision that morning about Alma’s idea, and he didn't want to wait until after class to discuss the proposal with her. </t>
+    <t xml:space="preserve">His financial group had come to a decision that morning about Alma’s startup, and he didn't want to wait until after class to discuss the proposal with her. </t>
   </si>
   <si>
     <t xml:space="preserve">The class was in a medium-sized auditorium which was brightly lit and very modern-looking. </t>
@@ -50,7 +50,7 @@
     <t xml:space="preserve">There were three projector screens in the front and each row of the audience had a table with power outlets and USB ports. </t>
   </si>
   <si>
-    <t xml:space="preserve">“Here we are at Lecture Seven already of Archaeology of Rome” said the professor. </t>
+    <t xml:space="preserve">“Here we are at Lecture Seven of Archaeology of Rome” said the professor. </t>
   </si>
   <si>
     <t xml:space="preserve">“The topic for today is Augustus, an incredibly important influence in Roman architecture.” </t>
@@ -59,28 +59,28 @@
     <t>She went into some recap of the last lecture.</t>
   </si>
   <si>
-    <t>Charlie turned to Alma and said, “Okay, so I’ve been thinking about your startup idea, and I have talked about it with my fellow investors.</t>
+    <t>Charlie turned to Alma and said, “Okay, so I’ve been thinking about your startup, and I have talked about it with my fellow investors.</t>
   </si>
   <si>
     <t>We’d like to invest half of what you originally suggested.</t>
   </si>
   <si>
-    <t>So we propose we start with wiring $28,000.</t>
+    <t>So we propose we start with wiring you $28,000.</t>
   </si>
   <si>
     <t xml:space="preserve">We would see how the company does and then invest the other half later.” </t>
   </si>
   <si>
-    <t>Alma, tapping her pen on her notebook, narrowed her eyes and pursed her lips.</t>
-  </si>
-  <si>
     <t xml:space="preserve">The professor said, “The senate had conferred upon him the title of Augustus the sacred and revered one, the restorer of traditional values, the city’s new religious leader, the restorer of temples. </t>
   </si>
   <si>
     <t>Augustus also sought to beautify Rome, make it into a new Athens, and dispel the criticisms of Rome as disorganized and ugly.”</t>
   </si>
   <si>
-    <t xml:space="preserve">Alma turned to Charlie and offered her rebuttal, “I don’t know about that: it’s not going to be possible to implement our ideas effectively unless the project is fully funded. </t>
+    <t>Alma turned to Charlie and offered her rebuttal, “I don’t know about that.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It’s not going to be possible to implement our ideas effectively unless the project is fully funded. </t>
   </si>
   <si>
     <t xml:space="preserve">We would have to find other investors like your competitor on campus, Churchill Capital Group, and that would set us back in our timeline. </t>
@@ -92,10 +92,10 @@
     <t xml:space="preserve">They whispered back and forth during the entire class working out a compromise. </t>
   </si>
   <si>
-    <t>The class ended, and the professor dismissed the students with a reminder that the midterm paper was due on Thursday and that they should email their papers to the TA.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Everyone, except Charlie and Alma, packed up their things and headed out of the lecture hall to get to their next class. </t>
+    <t>The professor dismissed the students with a reminder that the midterm paper was due on Thursday and that they should email their papers to the TA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Everyone, except Charlie and Alma, packed up their things and headed out of the lecture hall. </t>
   </si>
   <si>
     <t xml:space="preserve">“Alright, so we’ll have the $30,000 wired to you by tomorrow,” Charlie said. </t>
@@ -104,7 +104,7 @@
     <t xml:space="preserve">This wasn't ideal for Charlie, but Alma had refused to budge, and his investment group had told him they were willing to pay the full amount if necessary. </t>
   </si>
   <si>
-    <t>They hugged in confirmation of the deal, walked out of the now-empty lecture hall, and made plans to sign the official paperwork the next day.</t>
+    <t xml:space="preserve">They hugged in confirmation of the deal and made plans to sign the official paperwork the next day. </t>
   </si>
 </sst>
 </file>
@@ -1457,7 +1457,7 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" ht="56.05" customHeight="1">
+    <row r="4" ht="68.05" customHeight="1">
       <c r="A4" t="s" s="8">
         <v>6</v>
       </c>
@@ -1547,7 +1547,7 @@
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" ht="80.05" customHeight="1">
+    <row r="10" ht="68.05" customHeight="1">
       <c r="A10" t="s" s="8">
         <v>12</v>
       </c>
@@ -1652,12 +1652,12 @@
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" ht="80.05" customHeight="1">
+    <row r="17" ht="164.05" customHeight="1">
       <c r="A17" t="s" s="8">
         <v>19</v>
       </c>
       <c r="B17" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17" s="10">
         <v>2</v>
@@ -1667,7 +1667,7 @@
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" ht="164.05" customHeight="1">
+    <row r="18" ht="116.05" customHeight="1">
       <c r="A18" t="s" s="8">
         <v>20</v>
       </c>
@@ -1682,7 +1682,7 @@
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" ht="116.05" customHeight="1">
+    <row r="19" ht="68.05" customHeight="1">
       <c r="A19" t="s" s="8">
         <v>21</v>
       </c>
@@ -1690,14 +1690,14 @@
         <v>3</v>
       </c>
       <c r="C19" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" ht="140.05" customHeight="1">
+    <row r="20" ht="80.05" customHeight="1">
       <c r="A20" t="s" s="8">
         <v>22</v>
       </c>
@@ -1757,7 +1757,7 @@
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" ht="140.05" customHeight="1">
+    <row r="24" ht="128.05" customHeight="1">
       <c r="A24" t="s" s="8">
         <v>26</v>
       </c>
@@ -1772,7 +1772,7 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" ht="92.05" customHeight="1">
+    <row r="25" ht="80.05" customHeight="1">
       <c r="A25" t="s" s="8">
         <v>27</v>
       </c>
@@ -1817,7 +1817,7 @@
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" ht="116.05" customHeight="1">
+    <row r="28" ht="80.05" customHeight="1">
       <c r="A28" t="s" s="8">
         <v>30</v>
       </c>

--- a/story_xlsx_files/34.xlsx
+++ b/story_xlsx_files/34.xlsx
@@ -38,7 +38,7 @@
     <t>After talking at a party, Charlie had discovered that Alma was looking for financing for her web development company of which she was the founder and CEO.</t>
   </si>
   <si>
-    <t xml:space="preserve">It was serendipitous because he was an investment analyst for a student finance group on campus and he had been talking with other members of the group about making a new investment. </t>
+    <t xml:space="preserve">It was serendipitous because he was an investment analyst for a student finance group on campus, and he had just been talking with other members of the group about making a new investment. </t>
   </si>
   <si>
     <t xml:space="preserve">His financial group had come to a decision that morning about Alma’s startup, and he didn't want to wait until after class to discuss the proposal with her. </t>
@@ -47,10 +47,10 @@
     <t xml:space="preserve">The class was in a medium-sized auditorium which was brightly lit and very modern-looking. </t>
   </si>
   <si>
-    <t xml:space="preserve">There were three projector screens in the front and each row of the audience had a table with power outlets and USB ports. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">“Here we are at Lecture Seven of Archaeology of Rome” said the professor. </t>
+    <t xml:space="preserve">There were three projector screens in the front and each row of the audience which had a table with power outlets and USB ports. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Here we are at Lecture Seven of Archaeology of Rome,” said the professor. </t>
   </si>
   <si>
     <t xml:space="preserve">“The topic for today is Augustus, an incredibly important influence in Roman architecture.” </t>
@@ -68,10 +68,10 @@
     <t>So we propose we start with wiring you $28,000.</t>
   </si>
   <si>
-    <t xml:space="preserve">We would see how the company does and then invest the other half later.” </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The professor said, “The senate had conferred upon him the title of Augustus the sacred and revered one, the restorer of traditional values, the city’s new religious leader, the restorer of temples. </t>
+    <t xml:space="preserve">We would see how the company does and then invest the other half.” </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The professor said, “The senate had conferred upon him the title of Augustus, the sacred and revered one, the restorer of traditional values, the city’s new religious leader, the restorer of temples. </t>
   </si>
   <si>
     <t>Augustus also sought to beautify Rome, make it into a new Athens, and dispel the criticisms of Rome as disorganized and ugly.”</t>
@@ -104,7 +104,7 @@
     <t xml:space="preserve">This wasn't ideal for Charlie, but Alma had refused to budge, and his investment group had told him they were willing to pay the full amount if necessary. </t>
   </si>
   <si>
-    <t xml:space="preserve">They hugged in confirmation of the deal and made plans to sign the official paperwork the next day. </t>
+    <t xml:space="preserve">They got up and hugged in confirmation of the deal and made plans to sign the official paperwork the next day. </t>
   </si>
 </sst>
 </file>
@@ -1637,7 +1637,7 @@
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" ht="68.05" customHeight="1">
+    <row r="16" ht="56.05" customHeight="1">
       <c r="A16" t="s" s="8">
         <v>18</v>
       </c>
@@ -1817,7 +1817,7 @@
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" ht="80.05" customHeight="1">
+    <row r="28" ht="92.05" customHeight="1">
       <c r="A28" t="s" s="8">
         <v>30</v>
       </c>
